--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1979997.472745529</v>
+        <v>-1980709.774568573</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159989</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>139.7931161911738</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.13378276283163</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240821</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929901</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
         <v>52.47517038390259</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693648</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242251</v>
       </c>
       <c r="U12" t="n">
-        <v>188.4979333192472</v>
+        <v>97.89444873918758</v>
       </c>
       <c r="V12" t="n">
-        <v>99.13417112029499</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>122.4996923307862</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>138.117539533507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240821</v>
+        <v>62.86150506240827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.733281229299</v>
+        <v>16.73328122929906</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298091</v>
+        <v>60.63636177800552</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.90686244546279</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693648</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242251</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640278</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146544</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>27.92459034075255</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>169.4467621430023</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>24.44510218153468</v>
+        <v>160.4624859396988</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>188.4979333192472</v>
+        <v>186.1171236224505</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>177.7764185891743</v>
+        <v>188.4979333192474</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147511</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818238</v>
+        <v>8.981130875818309</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489262</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
-        <v>140.3689670006134</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301057</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469588</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.8995356100246</v>
+        <v>120.8818143493795</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845495</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147511</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818224</v>
+        <v>8.981130875818323</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V29" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>183.7070013477466</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489262</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288759</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140123</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301057</v>
+        <v>197.1963925484536</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.8995356100246</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U31" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241512</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167402</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="32">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250512</v>
+        <v>0.6584632146250511</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280694968886</v>
+        <v>234.5592829286223</v>
       </c>
       <c r="V33" t="n">
         <v>26.33646052453702</v>
@@ -3174,7 +3174,7 @@
         <v>3.000454048605377</v>
       </c>
       <c r="Y33" t="n">
-        <v>30.87560547448826</v>
+        <v>9.071825743160389</v>
       </c>
     </row>
     <row r="34">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>107.7274347007461</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>46.4974711453451</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>150.8788739872863</v>
+        <v>47.49389311322102</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3740,19 +3740,19 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1957281657027</v>
+        <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675121</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8284037471724</v>
+        <v>177.8284037471725</v>
       </c>
       <c r="H41" t="n">
         <v>106.0116293930745</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173681</v>
+        <v>9.140772277173738</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367594</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029082</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>39.72613402942282</v>
       </c>
       <c r="C42" t="n">
-        <v>126.4095426481619</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153552</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308953</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973833</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385925</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,19 +3977,19 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1957281657027</v>
+        <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675121</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8284037471724</v>
+        <v>177.8284037471725</v>
       </c>
       <c r="H44" t="n">
         <v>106.0116293930745</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173681</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367594</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029082</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4065,7 +4065,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.72613402942282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>44.56400098841468</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308953</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973833</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385925</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4817,16 +4817,16 @@
         <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
         <v>6.719070557086891</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,49 +4884,49 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
         <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
+        <v>6.590454258427762</v>
+      </c>
+      <c r="O9" t="n">
         <v>9.629741416440567</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>3.487505264143985</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.487505264143985</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U9" t="n">
-        <v>3.487505264143985</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V9" t="n">
-        <v>3.487505264143985</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="W9" t="n">
-        <v>3.487505264143985</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="X9" t="n">
-        <v>3.487505264143985</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.8500579517523</v>
+        <v>156.2850025354123</v>
       </c>
       <c r="C11" t="n">
-        <v>113.0548728728528</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D11" t="n">
-        <v>113.0548728728528</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E11" t="n">
-        <v>113.0548728728528</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F11" t="n">
-        <v>113.0548728728528</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G11" t="n">
-        <v>113.0548728728528</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554807</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>98.17571186577354</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>267.8825731524727</v>
       </c>
       <c r="L11" t="n">
-        <v>162.1536558828889</v>
+        <v>314.6034156332328</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0155549698362</v>
+        <v>395.4653147201801</v>
       </c>
       <c r="N11" t="n">
-        <v>429.6285089558909</v>
+        <v>470.7932078558725</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485399</v>
+        <v>505.0138425485403</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550902</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T11" t="n">
-        <v>687.2220245550902</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4924514848054</v>
+        <v>681.262160206704</v>
       </c>
       <c r="V11" t="n">
-        <v>470.3191995089628</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="W11" t="n">
-        <v>470.3191995089628</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="X11" t="n">
-        <v>286.8500579517523</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.8500579517523</v>
+        <v>346.6869553831368</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237.9773062565792</v>
+        <v>359.5606830887597</v>
       </c>
       <c r="C12" t="n">
-        <v>228.5127735582983</v>
+        <v>350.0961503904788</v>
       </c>
       <c r="D12" t="n">
-        <v>228.5127735582983</v>
+        <v>350.0961503904788</v>
       </c>
       <c r="E12" t="n">
-        <v>228.5127735582983</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0850572755424</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0850572755424</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0850572755424</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="I12" t="n">
         <v>68.0850572755424</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073558</v>
+        <v>733.4745786900215</v>
       </c>
       <c r="T12" t="n">
-        <v>703.2188174998585</v>
+        <v>696.279973182524</v>
       </c>
       <c r="U12" t="n">
-        <v>512.8168646521341</v>
+        <v>597.3966916277891</v>
       </c>
       <c r="V12" t="n">
-        <v>412.6813382679977</v>
+        <v>534.2647151001785</v>
       </c>
       <c r="W12" t="n">
-        <v>323.2305105670444</v>
+        <v>444.8138873992251</v>
       </c>
       <c r="X12" t="n">
-        <v>283.6702577524961</v>
+        <v>405.2536345846768</v>
       </c>
       <c r="Y12" t="n">
-        <v>237.9773062565792</v>
+        <v>359.5606830887597</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875851</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>27.18003706804303</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>27.18003706804303</v>
+        <v>47.71579242887327</v>
       </c>
       <c r="E13" t="n">
-        <v>27.18003706804303</v>
+        <v>83.82319414030762</v>
       </c>
       <c r="F13" t="n">
-        <v>66.009205183318</v>
+        <v>122.6523622555825</v>
       </c>
       <c r="G13" t="n">
-        <v>66.009205183318</v>
+        <v>122.6523622555825</v>
       </c>
       <c r="H13" t="n">
-        <v>66.009205183318</v>
+        <v>122.6523622555825</v>
       </c>
       <c r="I13" t="n">
-        <v>66.009205183318</v>
+        <v>122.6523622555825</v>
       </c>
       <c r="J13" t="n">
-        <v>76.90566564714112</v>
+        <v>179.9819322600398</v>
       </c>
       <c r="K13" t="n">
-        <v>76.90566564714112</v>
+        <v>179.9819322600398</v>
       </c>
       <c r="L13" t="n">
-        <v>221.4421490729812</v>
+        <v>179.9819322600398</v>
       </c>
       <c r="M13" t="n">
-        <v>221.4421490729812</v>
+        <v>331.3840170266724</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4539747889298</v>
+        <v>331.3840170266724</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.6467033804105</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.6467033804105</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.6874761572451</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="C14" t="n">
-        <v>372.8922910783451</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="D14" t="n">
-        <v>372.8922910783451</v>
+        <v>408.4909234687337</v>
       </c>
       <c r="E14" t="n">
-        <v>372.8922910783451</v>
+        <v>408.4909234687337</v>
       </c>
       <c r="F14" t="n">
-        <v>372.8922910783451</v>
+        <v>408.4909234687337</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179549</v>
+        <v>218.0889706210097</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554809</v>
+        <v>78.57630442554813</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553977</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>15.07983466553977</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>201.6927886515945</v>
+        <v>331.860517169588</v>
       </c>
       <c r="M14" t="n">
-        <v>388.3057426376492</v>
+        <v>412.7224162565353</v>
       </c>
       <c r="N14" t="n">
-        <v>574.9186966237039</v>
+        <v>488.0503093922277</v>
       </c>
       <c r="O14" t="n">
-        <v>609.1393313163717</v>
+        <v>522.2709440848955</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769887</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R14" t="n">
         <v>737.0894290049696</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049696</v>
+        <v>687.2220245550903</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0894290049696</v>
+        <v>642.4567546088766</v>
       </c>
       <c r="U14" t="n">
-        <v>737.0894290049696</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="V14" t="n">
-        <v>737.0894290049696</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="W14" t="n">
-        <v>737.0894290049696</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="X14" t="n">
-        <v>737.0894290049696</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.6874761572451</v>
+        <v>569.7271815385918</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>184.9720836465766</v>
+        <v>76.32868494635343</v>
       </c>
       <c r="C15" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D15" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E15" t="n">
-        <v>175.5075509482957</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596543</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R15" t="n">
-        <v>711.7934319440353</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S15" t="n">
-        <v>698.2151216744026</v>
+        <v>740.413423007356</v>
       </c>
       <c r="T15" t="n">
-        <v>661.0205161669052</v>
+        <v>703.2188174998585</v>
       </c>
       <c r="U15" t="n">
-        <v>601.3439451125407</v>
+        <v>643.542246445494</v>
       </c>
       <c r="V15" t="n">
-        <v>538.2119685849302</v>
+        <v>580.4102699178834</v>
       </c>
       <c r="W15" t="n">
-        <v>448.7611408839769</v>
+        <v>490.95944221693</v>
       </c>
       <c r="X15" t="n">
-        <v>409.2008880694286</v>
+        <v>300.5574893692055</v>
       </c>
       <c r="Y15" t="n">
-        <v>363.5079365735116</v>
+        <v>254.8645378732885</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6540070148243</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>59.28996477815785</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>59.28996477815785</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>59.28996477815785</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G16" t="n">
-        <v>59.28996477815785</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H16" t="n">
-        <v>71.49059261157508</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I16" t="n">
-        <v>84.65293573582684</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J16" t="n">
-        <v>141.9825057402841</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K16" t="n">
-        <v>141.9825057402841</v>
+        <v>125.0869358392788</v>
       </c>
       <c r="L16" t="n">
-        <v>286.5189891661242</v>
+        <v>269.6234192651188</v>
       </c>
       <c r="M16" t="n">
-        <v>286.5189891661242</v>
+        <v>421.0255040317514</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889298</v>
+        <v>421.0255040317514</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S16" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040789</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E17" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940548</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K17" t="n">
-        <v>189.4857200835759</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L17" t="n">
-        <v>236.206562564336</v>
+        <v>61.80067714629992</v>
       </c>
       <c r="M17" t="n">
-        <v>422.8195165503907</v>
+        <v>142.6625762332472</v>
       </c>
       <c r="N17" t="n">
-        <v>498.1474096860831</v>
+        <v>217.9904693689396</v>
       </c>
       <c r="O17" t="n">
-        <v>684.7603636721378</v>
+        <v>252.2111040616073</v>
       </c>
       <c r="P17" t="n">
-        <v>684.7603636721378</v>
+        <v>275.5508156250269</v>
       </c>
       <c r="Q17" t="n">
-        <v>684.7603636721378</v>
+        <v>462.1637696110816</v>
       </c>
       <c r="R17" t="n">
-        <v>684.7603636721378</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769887</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769887</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235038</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530778</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122036</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.0906376652133</v>
+        <v>718.8462320498033</v>
       </c>
       <c r="C18" t="n">
-        <v>195.0906376652133</v>
+        <v>529.433957782767</v>
       </c>
       <c r="D18" t="n">
-        <v>195.0906376652133</v>
+        <v>368.6538415437988</v>
       </c>
       <c r="E18" t="n">
         <v>195.0906376652133</v>
@@ -5592,52 +5592,52 @@
         <v>68.0850572755424</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0528889596543</v>
+        <v>718.8462320498033</v>
       </c>
       <c r="U18" t="n">
-        <v>556.6509361119299</v>
+        <v>718.8462320498033</v>
       </c>
       <c r="V18" t="n">
-        <v>556.6509361119299</v>
+        <v>718.8462320498033</v>
       </c>
       <c r="W18" t="n">
-        <v>385.4925905129377</v>
+        <v>718.8462320498033</v>
       </c>
       <c r="X18" t="n">
-        <v>385.4925905129377</v>
+        <v>718.8462320498033</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.0906376652133</v>
+        <v>718.8462320498033</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961939</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040783</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D20" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718617</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H20" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6609599165419</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K20" t="n">
-        <v>137.6609599165419</v>
+        <v>121.1240287847209</v>
       </c>
       <c r="L20" t="n">
-        <v>184.381802397302</v>
+        <v>307.7369827707757</v>
       </c>
       <c r="M20" t="n">
-        <v>370.9947563833567</v>
+        <v>388.598881857723</v>
       </c>
       <c r="N20" t="n">
-        <v>446.3226495190491</v>
+        <v>463.9267749934154</v>
       </c>
       <c r="O20" t="n">
-        <v>632.9356035051038</v>
+        <v>498.1474096860832</v>
       </c>
       <c r="P20" t="n">
-        <v>632.9356035051038</v>
+        <v>498.1474096860832</v>
       </c>
       <c r="Q20" t="n">
-        <v>632.9356035051038</v>
+        <v>684.7603636721379</v>
       </c>
       <c r="R20" t="n">
-        <v>632.9356035051038</v>
+        <v>684.7603636721379</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051038</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369974</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530773</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122029</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>407.7444067694745</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="C21" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="D21" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E21" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F21" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G21" t="n">
         <v>68.0850572755424</v>
@@ -5829,7 +5829,7 @@
         <v>68.0850572755424</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
         <v>53.04316068142016</v>
@@ -5841,40 +5841,40 @@
         <v>352.0527264137997</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821020001</v>
+        <v>610.9722821020002</v>
       </c>
       <c r="S21" t="n">
-        <v>610.9722821020001</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="T21" t="n">
-        <v>610.9722821020001</v>
+        <v>420.5703292542757</v>
       </c>
       <c r="U21" t="n">
-        <v>586.2802596964095</v>
+        <v>258.4870101232668</v>
       </c>
       <c r="V21" t="n">
-        <v>586.2802596964095</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="W21" t="n">
-        <v>586.2802596964095</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="X21" t="n">
-        <v>586.2802596964095</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="Y21" t="n">
-        <v>586.2802596964095</v>
+        <v>68.0850572755424</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961956</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040791</v>
+        <v>410.10159050408</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210062</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718627</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940555</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116217</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L23" t="n">
         <v>117.6741998406932</v>
       </c>
       <c r="M23" t="n">
-        <v>304.2871538267479</v>
+        <v>198.5360989276405</v>
       </c>
       <c r="N23" t="n">
-        <v>379.6150469624403</v>
+        <v>273.8639920633329</v>
       </c>
       <c r="O23" t="n">
-        <v>566.2280009484949</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="P23" t="n">
-        <v>566.2280009484949</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="Q23" t="n">
-        <v>566.2280009484949</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="R23" t="n">
-        <v>566.2280009484949</v>
+        <v>596.2380450312271</v>
       </c>
       <c r="S23" t="n">
-        <v>635.4593705533458</v>
+        <v>665.469414636078</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369975</v>
+        <v>739.7013862679715</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769897</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879314</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235049</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530779</v>
+        <v>626.500875753079</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122047</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07983466553977</v>
+        <v>368.6538415437988</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07983466553977</v>
+        <v>368.6538415437988</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553977</v>
+        <v>368.6538415437988</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
@@ -6078,40 +6078,40 @@
         <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998554</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188899</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769897</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596553</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596553</v>
       </c>
       <c r="S24" t="n">
-        <v>563.5897804292642</v>
+        <v>559.0557943915235</v>
       </c>
       <c r="T24" t="n">
-        <v>563.5897804292642</v>
+        <v>559.0557943915235</v>
       </c>
       <c r="U24" t="n">
-        <v>563.5897804292642</v>
+        <v>559.0557943915235</v>
       </c>
       <c r="V24" t="n">
-        <v>373.1878275815399</v>
+        <v>559.0557943915235</v>
       </c>
       <c r="W24" t="n">
-        <v>193.6156875924749</v>
+        <v>368.6538415437988</v>
       </c>
       <c r="X24" t="n">
-        <v>193.6156875924749</v>
+        <v>368.6538415437988</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.6156875924749</v>
+        <v>368.6538415437988</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.0798346655398</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489612</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874105</v>
+        <v>882.7966579874118</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942526</v>
+        <v>757.2538204942539</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350264</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471349</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141575</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845017</v>
+        <v>63.71974859845028</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528781</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523993</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666887</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366664</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186.1637746420379</v>
+        <v>144.364588651493</v>
       </c>
       <c r="C27" t="n">
-        <v>186.1637746420379</v>
+        <v>144.364588651493</v>
       </c>
       <c r="D27" t="n">
-        <v>186.1637746420379</v>
+        <v>144.364588651493</v>
       </c>
       <c r="E27" t="n">
-        <v>186.1637746420379</v>
+        <v>144.364588651493</v>
       </c>
       <c r="F27" t="n">
-        <v>186.1637746420379</v>
+        <v>144.364588651493</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514206</v>
+        <v>144.364588651493</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>144.364588651493</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
         <v>372.889591163402</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="S27" t="n">
-        <v>599.5945686129073</v>
+        <v>592.6557242955729</v>
       </c>
       <c r="T27" t="n">
-        <v>598.0933836821101</v>
+        <v>591.1545393647756</v>
       </c>
       <c r="U27" t="n">
-        <v>574.1102332044459</v>
+        <v>351.5302267416557</v>
       </c>
       <c r="V27" t="n">
-        <v>432.3233978502909</v>
+        <v>324.0916707907453</v>
       </c>
       <c r="W27" t="n">
-        <v>378.5659907260378</v>
+        <v>270.3342636664921</v>
       </c>
       <c r="X27" t="n">
-        <v>374.6991584881897</v>
+        <v>266.467431428644</v>
       </c>
       <c r="Y27" t="n">
-        <v>364.6996275689729</v>
+        <v>144.364588651493</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514206</v>
+        <v>80.25283525602207</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514206</v>
+        <v>80.25283525602207</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514206</v>
+        <v>80.25283525602207</v>
       </c>
       <c r="J28" t="n">
-        <v>86.64290924294505</v>
+        <v>80.25283525602207</v>
       </c>
       <c r="K28" t="n">
-        <v>86.64290924294505</v>
+        <v>225.2430579369849</v>
       </c>
       <c r="L28" t="n">
-        <v>266.162514176009</v>
+        <v>225.2430579369849</v>
       </c>
       <c r="M28" t="n">
-        <v>266.162514176009</v>
+        <v>225.2430579369849</v>
       </c>
       <c r="N28" t="n">
-        <v>266.162514176009</v>
+        <v>225.2430579369849</v>
       </c>
       <c r="O28" t="n">
-        <v>266.162514176009</v>
+        <v>225.2430579369849</v>
       </c>
       <c r="P28" t="n">
-        <v>266.162514176009</v>
+        <v>225.2430579369849</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.162514176009</v>
+        <v>256.2082727013265</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909797</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239877</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.6757382032153</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737329</v>
+        <v>48.13006019737349</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389701</v>
+        <v>39.61015627389713</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514209</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874101</v>
+        <v>882.7966579874114</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942522</v>
+        <v>757.2538204942535</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350248</v>
+        <v>597.663758335026</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471334</v>
+        <v>406.0329511471346</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141562</v>
+        <v>198.6052517141572</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859844954</v>
+        <v>63.71974859845045</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528782</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581076</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
         <v>1781.660986883924</v>
@@ -6494,19 +6494,19 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>456.9327966651502</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="C30" t="n">
-        <v>271.3701690411638</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="D30" t="n">
-        <v>271.3701690411638</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3701690411638</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3701690411638</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="G30" t="n">
-        <v>271.3701690411638</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3645886514929</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
         <v>372.889591163402</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204983</v>
+        <v>784.6805912031638</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428341</v>
+        <v>545.0562785800439</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1977290919237</v>
+        <v>301.976560483678</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4403219676707</v>
+        <v>102.7882851822097</v>
       </c>
       <c r="X30" t="n">
-        <v>466.932327584367</v>
+        <v>98.92145294436153</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.9327966651502</v>
+        <v>88.92192202514468</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.247764114478</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>92.80505797098638</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>92.80505797098638</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>163.8955811896446</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>163.8955811896446</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8955811896446</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8955811896446</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>163.8955811896446</v>
+        <v>84.0621640466176</v>
       </c>
       <c r="J31" t="n">
-        <v>256.2082727013258</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="K31" t="n">
-        <v>256.2082727013258</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="L31" t="n">
-        <v>256.2082727013258</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="M31" t="n">
-        <v>256.2082727013258</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="N31" t="n">
-        <v>256.2082727013258</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2082727013258</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R31" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032149</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737329</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389701</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601004</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734631</v>
+        <v>594.0635360734632</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581618</v>
+        <v>403.2687994581619</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465898</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
@@ -6707,25 +6707,25 @@
         <v>636.2158862857848</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>909.3311676570756</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082338</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.362603721341</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.037972197049</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.70005889646</v>
+        <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
         <v>1761.464280099537</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>431.894345308931</v>
+        <v>278.0782563209799</v>
       </c>
       <c r="C33" t="n">
-        <v>431.894345308931</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="D33" t="n">
-        <v>271.1142290699627</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="E33" t="n">
-        <v>271.1142290699627</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="F33" t="n">
-        <v>271.1142290699627</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="G33" t="n">
-        <v>271.1142290699627</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="H33" t="n">
-        <v>144.1086486802919</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>88.66598205394362</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982136</v>
+        <v>73.62408545982137</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881955</v>
@@ -6810,19 +6810,19 @@
         <v>785.2607218045529</v>
       </c>
       <c r="U33" t="n">
-        <v>545.636409181433</v>
+        <v>548.3321531897828</v>
       </c>
       <c r="V33" t="n">
-        <v>519.0339238031128</v>
+        <v>521.7296678114626</v>
       </c>
       <c r="W33" t="n">
-        <v>466.1125872514498</v>
+        <v>468.8083312597996</v>
       </c>
       <c r="X33" t="n">
-        <v>463.0818255861918</v>
+        <v>465.7775695945417</v>
       </c>
       <c r="Y33" t="n">
-        <v>431.894345308931</v>
+        <v>456.614109247915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
         <v>83.03748606864494</v>
@@ -6844,37 +6844,37 @@
         <v>83.03748606864494</v>
       </c>
       <c r="F34" t="n">
-        <v>157.6692084593393</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="G34" t="n">
-        <v>157.6692084593393</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="H34" t="n">
-        <v>205.672390568176</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="I34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="J34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="K34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="L34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="M34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="N34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="O34" t="n">
-        <v>249.2804059537984</v>
+        <v>83.03748606864494</v>
       </c>
       <c r="P34" t="n">
-        <v>249.2804059537984</v>
+        <v>163.0558862708941</v>
       </c>
       <c r="Q34" t="n">
         <v>249.2804059537984</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099198</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010582</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6932,28 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998704</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57576979998704</v>
+        <v>178.5009941413874</v>
       </c>
       <c r="K35" t="n">
-        <v>51.57576979998704</v>
+        <v>178.5009941413874</v>
       </c>
       <c r="L35" t="n">
-        <v>309.4319710763154</v>
+        <v>225.2218366221476</v>
       </c>
       <c r="M35" t="n">
-        <v>390.2938701632627</v>
+        <v>306.0837357090949</v>
       </c>
       <c r="N35" t="n">
-        <v>465.621763298955</v>
+        <v>381.4116288447873</v>
       </c>
       <c r="O35" t="n">
-        <v>723.4779645752834</v>
+        <v>415.6322635374551</v>
       </c>
       <c r="P35" t="n">
-        <v>723.4779645752834</v>
+        <v>670.0297874835833</v>
       </c>
       <c r="Q35" t="n">
         <v>850.5537443902416</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>290.0648702249214</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="C36" t="n">
-        <v>290.0648702249214</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="D36" t="n">
-        <v>129.2847539859532</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="E36" t="n">
-        <v>129.2847539859532</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="F36" t="n">
-        <v>129.2847539859532</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="G36" t="n">
-        <v>129.2847539859532</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="H36" t="n">
-        <v>129.2847539859532</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="J36" t="n">
         <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548267</v>
+        <v>58.80019076548268</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978623</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276558</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857557</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857557</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="R36" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="S36" t="n">
-        <v>641.9601789281015</v>
+        <v>577.5758896300332</v>
       </c>
       <c r="T36" t="n">
-        <v>641.9601789281015</v>
+        <v>360.4335425537804</v>
       </c>
       <c r="U36" t="n">
-        <v>641.9601789281015</v>
+        <v>120.8092299306606</v>
       </c>
       <c r="V36" t="n">
-        <v>398.8804608317356</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="W36" t="n">
-        <v>398.8804608317356</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="X36" t="n">
-        <v>398.8804608317356</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="Y36" t="n">
-        <v>398.8804608317356</v>
+        <v>73.8420873596049</v>
       </c>
     </row>
     <row r="37">
@@ -7078,10 +7078,10 @@
         <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="G37" t="n">
         <v>56.03780166411086</v>
@@ -7160,7 +7160,7 @@
         <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634018</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786677</v>
@@ -7172,28 +7172,28 @@
         <v>51.57576979998704</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>175.0423168111873</v>
       </c>
       <c r="K38" t="n">
-        <v>244.900543598745</v>
+        <v>432.8985180875156</v>
       </c>
       <c r="L38" t="n">
-        <v>291.6213860795051</v>
+        <v>479.6193605682758</v>
       </c>
       <c r="M38" t="n">
-        <v>372.4832851664524</v>
+        <v>560.4812596552231</v>
       </c>
       <c r="N38" t="n">
-        <v>630.3394864427808</v>
+        <v>635.8091527909155</v>
       </c>
       <c r="O38" t="n">
-        <v>888.1956877191092</v>
+        <v>670.0297874835833</v>
       </c>
       <c r="P38" t="n">
-        <v>888.1956877191092</v>
+        <v>670.0297874835833</v>
       </c>
       <c r="Q38" t="n">
-        <v>926.9595910354045</v>
+        <v>850.5537443902416</v>
       </c>
       <c r="R38" t="n">
         <v>926.9595910354045</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>173.2397677670633</v>
+        <v>592.5660885414864</v>
       </c>
       <c r="C39" t="n">
-        <v>173.2397677670633</v>
+        <v>403.15381427445</v>
       </c>
       <c r="D39" t="n">
-        <v>173.2397677670633</v>
+        <v>242.3736980354818</v>
       </c>
       <c r="E39" t="n">
-        <v>173.2397677670633</v>
+        <v>68.81049415689625</v>
       </c>
       <c r="F39" t="n">
         <v>20.83686474960229</v>
@@ -7254,49 +7254,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548267</v>
+        <v>58.80019076548268</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978623</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276558</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857557</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857557</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="R39" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="S39" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="T39" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="U39" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="V39" t="n">
-        <v>398.8804608317356</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="W39" t="n">
-        <v>398.8804608317356</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="X39" t="n">
-        <v>398.8804608317356</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="Y39" t="n">
-        <v>173.2397677670633</v>
+        <v>771.1019414684214</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L40" t="n">
         <v>56.03780166411086</v>
@@ -7372,10 +7372,10 @@
         <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753167</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564249</v>
+        <v>708.1276389564251</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465753</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E41" t="n">
         <v>478.6008376706561</v>
@@ -7400,61 +7400,61 @@
         <v>314.773079666073</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1484294164038</v>
+        <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.591595530862</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349435</v>
+        <v>523.4617675668874</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.373680145212</v>
+        <v>604.3236666538346</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.701573280905</v>
+        <v>679.651559789527</v>
       </c>
       <c r="O41" t="n">
-        <v>1176.130484901259</v>
+        <v>952.4718660055161</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1325.915536757533</v>
       </c>
       <c r="R41" t="n">
         <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262769</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U41" t="n">
         <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181019</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>316.5324984382887</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C42" t="n">
-        <v>188.8460917229736</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400537</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988575</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7500,40 +7500,40 @@
         <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430245</v>
+        <v>569.9438436430246</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620589</v>
+        <v>701.644783262059</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201588</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201588</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201588</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="T42" t="n">
-        <v>568.127549443906</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="U42" t="n">
-        <v>568.127549443906</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="V42" t="n">
-        <v>568.127549443906</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="W42" t="n">
-        <v>542.173191502961</v>
+        <v>752.3766942618795</v>
       </c>
       <c r="X42" t="n">
-        <v>542.173191502961</v>
+        <v>752.3766942618795</v>
       </c>
       <c r="Y42" t="n">
-        <v>316.5324984382887</v>
+        <v>752.3766942618795</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.59519759046105</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.59519759046105</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.59519759046105</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.59519759046105</v>
       </c>
       <c r="F43" t="n">
-        <v>54.73839042465897</v>
+        <v>70.59519759046105</v>
       </c>
       <c r="G43" t="n">
-        <v>54.73839042465897</v>
+        <v>70.59519759046105</v>
       </c>
       <c r="H43" t="n">
-        <v>54.73839042465897</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606949</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606949</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323072</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931775</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>46.96538615316653</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>70.59519759046105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753176</v>
+        <v>818.426354275318</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564259</v>
+        <v>708.1276389564262</v>
       </c>
       <c r="D44" t="n">
-        <v>610.387850646576</v>
+        <v>610.3878506465762</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706563</v>
+        <v>478.6008376706565</v>
       </c>
       <c r="F44" t="n">
-        <v>314.773079666073</v>
+        <v>314.7730796660731</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1484294164038</v>
+        <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>422.591595530862</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>469.3124380116221</v>
+        <v>707.9121095349433</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218907</v>
+        <v>842.9233381771559</v>
       </c>
       <c r="N44" t="n">
-        <v>1102.701573280905</v>
+        <v>918.2512313128483</v>
       </c>
       <c r="O44" t="n">
-        <v>1136.922207973572</v>
+        <v>952.4718660055161</v>
       </c>
       <c r="P44" t="n">
-        <v>1360.580826869316</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1360.580826869316</v>
+        <v>1325.915536757533</v>
       </c>
       <c r="R44" t="n">
         <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262769</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889993</v>
       </c>
       <c r="V44" t="n">
         <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582956</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785754</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181028</v>
+        <v>952.8480423181031</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>470.85718483791</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C45" t="n">
-        <v>470.85718483791</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D45" t="n">
-        <v>310.0770685989418</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E45" t="n">
-        <v>136.5138647203562</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F45" t="n">
-        <v>136.5138647203562</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5138647203562</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H45" t="n">
-        <v>136.5138647203562</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988575</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
@@ -7737,40 +7737,40 @@
         <v>365.0388672322653</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430245</v>
+        <v>569.9438436430246</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620589</v>
+        <v>701.644783262059</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201588</v>
+        <v>778.3310522028245</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201588</v>
+        <v>738.2036440922964</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201588</v>
+        <v>738.2036440922964</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201588</v>
+        <v>738.2036440922964</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201588</v>
+        <v>738.2036440922964</v>
       </c>
       <c r="V45" t="n">
-        <v>740.2557541076187</v>
+        <v>738.2036440922964</v>
       </c>
       <c r="W45" t="n">
-        <v>470.85718483791</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="X45" t="n">
-        <v>470.85718483791</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="Y45" t="n">
-        <v>470.85718483791</v>
+        <v>712.2492861513514</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F46" t="n">
-        <v>58.54771921525453</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1336235606949</v>
+        <v>87.41360598064909</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1336235606949</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1336235606949</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323072</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931775</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
         <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>176.6027710248758</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466393</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518344</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>32.26411703693726</v>
       </c>
       <c r="D11" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6899088095807</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H11" t="n">
-        <v>134.7393516926511</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>44.31761724675152</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613491</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085683</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>118.1902164787945</v>
+        <v>52.19197549033356</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>30.75559492197583</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675142</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>142.7315194560842</v>
@@ -23558,10 +23558,10 @@
         <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613488</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220482.9987941149</v>
+        <v>220482.998794115</v>
       </c>
       <c r="C2" t="n">
         <v>220482.998794115</v>
@@ -26320,7 +26320,7 @@
         <v>220610.3289297875</v>
       </c>
       <c r="E2" t="n">
-        <v>189933.8571872837</v>
+        <v>189933.8571872838</v>
       </c>
       <c r="F2" t="n">
         <v>189933.8571872837</v>
@@ -26332,13 +26332,13 @@
         <v>220929.637214634</v>
       </c>
       <c r="I2" t="n">
-        <v>220929.6372146339</v>
+        <v>220929.637214634</v>
       </c>
       <c r="J2" t="n">
-        <v>220929.6372146341</v>
+        <v>220929.637214634</v>
       </c>
       <c r="K2" t="n">
-        <v>220929.6372146342</v>
+        <v>220929.637214634</v>
       </c>
       <c r="L2" t="n">
         <v>220929.6372146341</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913326</v>
+        <v>95439.52541913331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068793</v>
+        <v>143496.2830068792</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262464</v>
+        <v>96101.69331262475</v>
       </c>
       <c r="M3" t="n">
         <v>46197.3662923228</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924386</v>
+        <v>72254.9148592437</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>408917.9495512589</v>
       </c>
       <c r="E4" t="n">
-        <v>296218.5005573042</v>
+        <v>296218.5005573041</v>
       </c>
       <c r="F4" t="n">
-        <v>296218.5005573042</v>
+        <v>296218.5005573041</v>
       </c>
       <c r="G4" t="n">
         <v>366826.3686005261</v>
@@ -26436,13 +26436,13 @@
         <v>366826.368600526</v>
       </c>
       <c r="I4" t="n">
-        <v>366826.368600526</v>
+        <v>366826.3686005261</v>
       </c>
       <c r="J4" t="n">
         <v>367614.5661588977</v>
       </c>
       <c r="K4" t="n">
-        <v>367614.5661588978</v>
+        <v>367614.5661588977</v>
       </c>
       <c r="L4" t="n">
         <v>367599.7761915191</v>
@@ -26451,10 +26451,10 @@
         <v>366789.8388182006</v>
       </c>
       <c r="N4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="O4" t="n">
-        <v>367176.9014819183</v>
+        <v>367176.9014819184</v>
       </c>
       <c r="P4" t="n">
         <v>367176.9014819184</v>
@@ -26488,13 +26488,13 @@
         <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.3387658242</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222224.7242591003</v>
+        <v>-222229.1906433055</v>
       </c>
       <c r="C6" t="n">
-        <v>-222224.7242591003</v>
+        <v>-222229.1906433055</v>
       </c>
       <c r="D6" t="n">
-        <v>-223123.5179152616</v>
+        <v>-223126.7109981102</v>
       </c>
       <c r="E6" t="n">
-        <v>-414053.7154864825</v>
+        <v>-414363.6732867557</v>
       </c>
       <c r="F6" t="n">
-        <v>-134927.6003077683</v>
+        <v>-135237.5581080417</v>
       </c>
       <c r="G6" t="n">
         <v>-280008.5955708496</v>
@@ -26543,25 +26543,25 @@
         <v>-184569.0701517163</v>
       </c>
       <c r="J6" t="n">
-        <v>-337630.8891713065</v>
+        <v>-337630.8891713064</v>
       </c>
       <c r="K6" t="n">
         <v>-194134.6061644272</v>
       </c>
       <c r="L6" t="n">
-        <v>-290096.5798723578</v>
+        <v>-290096.5798723579</v>
       </c>
       <c r="M6" t="n">
-        <v>-232970.8634945768</v>
+        <v>-232970.8634945767</v>
       </c>
       <c r="N6" t="n">
-        <v>-186773.497202254</v>
+        <v>-186773.4972022539</v>
       </c>
       <c r="O6" t="n">
-        <v>-262299.3069554014</v>
+        <v>-262299.3069554013</v>
       </c>
       <c r="P6" t="n">
-        <v>-190044.3920961576</v>
+        <v>-190044.3920961575</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
         <v>214.3124603908652</v>
@@ -26722,10 +26722,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P2" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="3">
@@ -26808,16 +26808,16 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192474</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892761</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700286</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500672</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500672</v>
       </c>
     </row>
   </sheetData>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008443</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407808</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
         <v>57.74670786540349</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929178</v>
+        <v>63.13594470929155</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003855</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008443</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>34.09121592938987</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
         <v>73.5786919263081</v>
@@ -27901,7 +27901,7 @@
         <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>236.91502223125</v>
       </c>
       <c r="T8" t="n">
         <v>224.246294399988</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.3189018843524</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27944,13 +27944,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>146.144319312168</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>124.6379672828833</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,13 +27974,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.4130537153763</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.1850364940121</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28111,11 +28111,11 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
+        <v>160.7168484597796</v>
+      </c>
+      <c r="K11" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="K11" t="n">
-        <v>6.727192146300958</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -28123,10 +28123,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741033</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>41.58050393937496</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>178.1482641530678</v>
@@ -28175,10 +28175,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
@@ -28187,7 +28187,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
@@ -28223,10 +28223,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>48.73013617764147</v>
+        <v>139.3336207577011</v>
       </c>
       <c r="V12" t="n">
-        <v>141.5147497951073</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
         <v>178.1482641530678</v>
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C13" t="n">
+        <v>166.4571809719723</v>
+      </c>
+      <c r="D13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="D13" t="n">
-        <v>145.1826502507107</v>
-      </c>
-      <c r="E13" t="n">
-        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>178.1482641530678</v>
@@ -28269,28 +28269,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>131.2461333039424</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
         <v>67.02998013918997</v>
       </c>
       <c r="L13" t="n">
+        <v>32.15181624817887</v>
+      </c>
+      <c r="M13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="M13" t="n">
-        <v>25.21686539889344</v>
-      </c>
       <c r="N13" t="n">
-        <v>178.1482641530678</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="P13" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2169859636892</v>
+        <v>177.7927008750608</v>
       </c>
       <c r="R13" t="n">
         <v>178.1482641530678</v>
@@ -28348,28 +28348,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459405</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300958</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>161.4075298870656</v>
+        <v>160.7168484597796</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742195</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>126.8817897463604</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446044746268</v>
@@ -28448,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R15" t="n">
-        <v>99.81293834361486</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
         <v>178.1482641530678</v>
@@ -28469,7 +28469,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y15" t="n">
         <v>178.1482641530678</v>
@@ -28485,10 +28485,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28500,34 +28500,34 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
+        <v>165.8243976546666</v>
+      </c>
+      <c r="I16" t="n">
+        <v>164.852968067965</v>
+      </c>
+      <c r="J16" t="n">
+        <v>120.2396075829089</v>
+      </c>
+      <c r="K16" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="I16" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="J16" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="K16" t="n">
-        <v>67.02998013918997</v>
       </c>
       <c r="L16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>112.4140822408022</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O16" t="n">
+        <v>87.24574430427398</v>
+      </c>
+      <c r="P16" t="n">
+        <v>58.47859890024886</v>
+      </c>
+      <c r="Q16" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="P16" t="n">
-        <v>58.47859890024887</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28585,40 +28585,40 @@
         <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K17" t="n">
-        <v>182.8947531746203</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108875</v>
+        <v>38.66743857676505</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28643,13 +28643,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28694,22 +28694,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>187.0463332647377</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764144</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>97.25782143400929</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477843</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
         <v>67.02998013918997</v>
@@ -28761,7 +28761,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,43 +28819,43 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>144.1630356884413</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300958</v>
+        <v>113.8425397414334</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742195</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R20" t="n">
         <v>194.8815453823668</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -28928,16 +28928,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757104</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>212.7829673153539</v>
+        <v>76.76558355718981</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615503</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28980,7 +28980,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J22" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
         <v>67.02998013918997</v>
@@ -28998,7 +28998,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29059,40 +29059,40 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8192473728357</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742195</v>
+        <v>278.2096703566694</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>294.8984112822957</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>264.585235441153</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29123,7 +29123,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29132,13 +29132,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>3.092858000757161</v>
+        <v>5.473667697553793</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
@@ -29174,10 +29174,10 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615509</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>88.92816498783725</v>
+        <v>78.20665025776415</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29217,7 +29217,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J25" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
         <v>67.02998013918997</v>
@@ -29235,7 +29235,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240023</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29366,13 +29366,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>52.47517038390259</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
@@ -29405,22 +29405,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>100.2799539147888</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>102.5024717846461</v>
       </c>
     </row>
     <row r="28">
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7007749271525</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H28" t="n">
         <v>165.8243976546666</v>
@@ -29454,13 +29454,13 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>171.4782033685685</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L28" t="n">
-        <v>213.484750524001</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M28" t="n">
         <v>25.21686539889344</v>
@@ -29472,34 +29472,34 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2169859636892</v>
+        <v>158.4949806751453</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4299611556341</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>3.811150176619321</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29606,13 +29606,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
@@ -29642,22 +29642,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>69.50819102855797</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="31">
@@ -29667,16 +29667,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.0523395531862</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>213.484750524001</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>213.484750524001</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29688,10 +29688,10 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013918997</v>
@@ -29709,34 +29709,34 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024887</v>
+        <v>149.1732035646033</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407511</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1953356407504</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29843,13 +29843,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2.668786568266313</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29894,7 +29894,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.5086806595374</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="34">
@@ -29916,19 +29916,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3124603908652</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3124603908652</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>208.9014684574826</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013918997</v>
@@ -29946,10 +29946,10 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024887</v>
+        <v>139.3052657712076</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R34" t="n">
         <v>214.3124603908652</v>
@@ -30004,31 +30004,31 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
+        <v>241.009769215476</v>
+      </c>
+      <c r="J35" t="n">
+        <v>236.0383153199326</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.727192146300951</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J35" t="n">
-        <v>76.78161896459405</v>
-      </c>
-      <c r="K35" t="n">
-        <v>6.727192146300958</v>
-      </c>
-      <c r="L35" t="n">
-        <v>213.2680391874426</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>225.8945117006673</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15.09197235108875</v>
-      </c>
       <c r="Q35" t="n">
-        <v>218.0711105878848</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.02305969691966</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30083,10 +30083,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>194.1514497700571</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30150,13 +30150,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>177.232643146072</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>204.2572768609995</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
@@ -30165,7 +30165,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K37" t="n">
         <v>67.02998013918997</v>
@@ -30183,7 +30183,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30244,31 +30244,31 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
+        <v>201.4953028142912</v>
+      </c>
+      <c r="K38" t="n">
+        <v>267.1880015163296</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>15.09197235108874</v>
+      </c>
+      <c r="Q38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="K38" t="n">
-        <v>6.727192146300958</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>184.3720284248848</v>
-      </c>
-      <c r="O38" t="n">
-        <v>225.8945117006673</v>
-      </c>
-      <c r="P38" t="n">
-        <v>15.09197235108875</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>128.8671949326698</v>
-      </c>
       <c r="R38" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
         <v>272.0591682562687</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.944565132641998</v>
+        <v>111.3295460067073</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
@@ -30359,7 +30359,7 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30402,13 +30402,13 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K40" t="n">
         <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817887</v>
+        <v>67.70831818202592</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889344</v>
@@ -30420,7 +30420,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30444,7 +30444,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="X40" t="n">
-        <v>257.4759573420895</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="I41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>241.0097692154761</v>
+        <v>54.69629248006602</v>
       </c>
       <c r="M41" t="n">
-        <v>241.0097692154761</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>39.60432012897625</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>15.09197235108875</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="42">
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>137.0243603682429</v>
       </c>
       <c r="C42" t="n">
-        <v>61.10860887620404</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
@@ -30590,7 +30590,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
@@ -30599,13 +30599,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30627,19 +30627,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>165.8687154918341</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
-        <v>165.8243976546666</v>
+        <v>220.3924970177287</v>
       </c>
       <c r="I43" t="n">
-        <v>241.0097692154761</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013918997</v>
@@ -30657,7 +30657,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30666,25 +30666,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="V43" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="W43" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="I44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>241.0097692154761</v>
+        <v>54.69629248006595</v>
       </c>
       <c r="N44" t="n">
-        <v>241.0097692154761</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.71173703742195</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
-        <v>205.994324658119</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30794,7 +30794,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
         <v>52.47517038390259</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890777</v>
+        <v>94.99366675965483</v>
       </c>
       <c r="S45" t="n">
         <v>191.5907913200043</v>
@@ -30833,10 +30833,10 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>196.0849199269876</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30864,10 +30864,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>169.7165223510216</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>241.0097692154761</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
         <v>165.8243976546666</v>
@@ -30876,7 +30876,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
         <v>67.02998013918997</v>
@@ -30894,28 +30894,28 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>187.1640874754505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="V46" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="W46" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H11" t="n">
         <v>4.165312310217852</v>
@@ -31762,16 +31762,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M11" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O11" t="n">
         <v>68.52759814556021</v>
@@ -31780,7 +31780,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318172</v>
@@ -31792,7 +31792,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H12" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N12" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P12" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31923,10 +31923,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N13" t="n">
         <v>27.91832636309192</v>
@@ -31941,16 +31941,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H14" t="n">
         <v>4.165312310217852</v>
@@ -31999,16 +31999,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M14" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O14" t="n">
         <v>68.52759814556021</v>
@@ -32017,7 +32017,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318172</v>
@@ -32029,7 +32029,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H15" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N15" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P15" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32160,10 +32160,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N16" t="n">
         <v>27.91832636309192</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217852</v>
@@ -32236,16 +32236,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M17" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O17" t="n">
         <v>68.52759814556021</v>
@@ -32254,7 +32254,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318172</v>
@@ -32266,7 +32266,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N18" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P18" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32397,10 +32397,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
         <v>27.91832636309192</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217852</v>
@@ -32473,16 +32473,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M20" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O20" t="n">
         <v>68.52759814556021</v>
@@ -32491,7 +32491,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318172</v>
@@ -32503,7 +32503,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H21" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N21" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P21" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32634,10 +32634,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N22" t="n">
         <v>27.91832636309192</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217852</v>
@@ -32710,16 +32710,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M23" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O23" t="n">
         <v>68.52759814556021</v>
@@ -32728,7 +32728,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318172</v>
@@ -32740,7 +32740,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H24" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N24" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P24" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32871,10 +32871,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N25" t="n">
         <v>27.91832636309192</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217852</v>
@@ -32947,16 +32947,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M26" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O26" t="n">
         <v>68.52759814556021</v>
@@ -32965,7 +32965,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318172</v>
@@ -32977,7 +32977,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H27" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N27" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P27" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33108,10 +33108,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N28" t="n">
         <v>27.91832636309192</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H29" t="n">
         <v>4.165312310217852</v>
@@ -33184,16 +33184,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M29" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O29" t="n">
         <v>68.52759814556021</v>
@@ -33202,7 +33202,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318172</v>
@@ -33214,7 +33214,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H30" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N30" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P30" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33345,10 +33345,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N31" t="n">
         <v>27.91832636309192</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H32" t="n">
         <v>4.165312310217852</v>
@@ -33421,16 +33421,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M32" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O32" t="n">
         <v>68.52759814556021</v>
@@ -33439,7 +33439,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318172</v>
@@ -33451,7 +33451,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H33" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N33" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P33" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S33" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375088</v>
@@ -33582,10 +33582,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N34" t="n">
         <v>27.91832636309192</v>
@@ -33600,16 +33600,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H35" t="n">
         <v>4.165312310217852</v>
@@ -33658,16 +33658,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M35" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O35" t="n">
         <v>68.52759814556021</v>
@@ -33676,7 +33676,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318172</v>
@@ -33688,7 +33688,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H36" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N36" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P36" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S36" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375088</v>
@@ -33819,10 +33819,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N37" t="n">
         <v>27.91832636309192</v>
@@ -33837,16 +33837,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H38" t="n">
         <v>4.165312310217852</v>
@@ -33895,16 +33895,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M38" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O38" t="n">
         <v>68.52759814556021</v>
@@ -33913,7 +33913,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318172</v>
@@ -33925,7 +33925,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H39" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N39" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P39" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S39" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375088</v>
@@ -34056,10 +34056,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N40" t="n">
         <v>27.91832636309192</v>
@@ -34074,16 +34074,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H41" t="n">
         <v>4.165312310217852</v>
@@ -34132,16 +34132,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M41" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O41" t="n">
         <v>68.52759814556021</v>
@@ -34150,7 +34150,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318172</v>
@@ -34162,7 +34162,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H42" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N42" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P42" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S42" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375088</v>
@@ -34293,10 +34293,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N43" t="n">
         <v>27.91832636309192</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H44" t="n">
         <v>4.165312310217852</v>
@@ -34369,16 +34369,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M44" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O44" t="n">
         <v>68.52759814556021</v>
@@ -34387,7 +34387,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R44" t="n">
         <v>25.54857067318172</v>
@@ -34399,7 +34399,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H45" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N45" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P45" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375088</v>
@@ -34530,10 +34530,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N46" t="n">
         <v>27.91832636309192</v>
@@ -34548,16 +34548,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35185,19 +35185,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.129915453191039</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.069987028295762</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884738</v>
+        <v>83.93522949518561</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M11" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O11" t="n">
-        <v>76.14680160873634</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564587</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880997363</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109548</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235706</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084278</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462118</v>
+        <v>39.22138193462112</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.00652572103345</v>
+        <v>57.90865657015882</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.996447904889</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837865</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>140.669380155291</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.57571491137162</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192472</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O14" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P14" t="n">
-        <v>146.3155575359768</v>
+        <v>145.6248761086909</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69108318109548</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235712</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35796,34 +35796,34 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840125</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510279</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015888</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N16" t="n">
-        <v>95.89392487152085</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>49.7668603064972</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937856</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,37 +35884,37 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>176.1675610283193</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M17" t="n">
+        <v>81.67868594641141</v>
+      </c>
+      <c r="N17" t="n">
+        <v>76.08878094514382</v>
+      </c>
+      <c r="O17" t="n">
+        <v>34.56629766936138</v>
+      </c>
+      <c r="P17" t="n">
+        <v>23.5754662256763</v>
+      </c>
+      <c r="Q17" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="N17" t="n">
-        <v>76.08878094514381</v>
-      </c>
-      <c r="O17" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
         <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.38141672384729</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>107.1153475951325</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M20" t="n">
+        <v>81.67868594641141</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.08878094514382</v>
+      </c>
+      <c r="O20" t="n">
+        <v>34.56629766936138</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="N20" t="n">
-        <v>76.08878094514381</v>
-      </c>
-      <c r="O20" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M23" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O23" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.4979333192474</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
         <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>72.43252988247642</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433466</v>
+        <v>14.43469394850324</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192482</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777001</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691438</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933636</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729123</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7730134865791</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163418</v>
+        <v>18.6032051416341</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.78397559684846</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.23859578565958</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>146.454770384811</v>
       </c>
       <c r="L28" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>31.27799471145607</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.05478936836682</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777001</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
         <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729123</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7730134865791</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163419</v>
+        <v>18.6032051416341</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,16 +36963,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.43541888821812</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.02756955202867</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.80860931177602</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,10 +36984,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603589</v>
       </c>
       <c r="J31" t="n">
-        <v>93.24514294109206</v>
+        <v>93.24514294109198</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>90.69460466435443</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.0547893683669</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>275.8740215871625</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033285</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849839</v>
+        <v>19.4309150084984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37212,16 +37212,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.38557817241858</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.48806273619864</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>44.04850038951754</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37242,10 +37242,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>80.82666687095875</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.09547442717601</v>
       </c>
       <c r="R34" t="n">
         <v>10.88249923523111</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079268</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>159.2566963553385</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4608093700286</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M35" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700286</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q35" t="n">
-        <v>128.3593735504628</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390188</v>
+        <v>77.1776228739019</v>
       </c>
       <c r="S35" t="n">
         <v>44.54217369782054</v>
@@ -37446,13 +37446,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>31.04939904079268</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>124.7136838496972</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M38" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4608093700286</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700286</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>39.15545789524782</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.1776228739019</v>
       </c>
       <c r="S38" t="n">
         <v>44.54217369782054</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>101.889062662652</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618875</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O41" t="n">
-        <v>74.17061779833763</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310923</v>
+        <v>46.12822383310918</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702789</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565682</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37923,16 +37923,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>26.94183327338748</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>54.56809936306214</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751103</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295451</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.09031380723349</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.8684964013076</v>
       </c>
     </row>
     <row r="44">
@@ -38020,13 +38020,13 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258599</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618875</v>
+        <v>136.3749784264774</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O44" t="n">
         <v>34.56629766936138</v>
@@ -38035,16 +38035,16 @@
         <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>11.11277927575222</v>
+        <v>46.12822383310918</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702789</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565682</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>30.78964013257491</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.3089942883236</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>59.94710151176133</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.57980805984189</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295451</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
